--- a/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.5/MGDMTO显著性分析/CEC/Data/CEC22_20.xlsx
+++ b/基于高斯分布的多任务优化/MGDMTO加上相似性判断/MGDMTO_s_CR0.5/MGDMTO显著性分析/CEC/Data/CEC22_20.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,52 +450,42 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MFEA</t>
+          <t>MGDMTO_s_CR0.2</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>MFEA_AKT</t>
+          <t>MGDMTO_s_CR0.3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MFDE</t>
+          <t>MGDMTO_s_CR0.4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>MTGA</t>
+          <t>MGDMTO_s_CR0.1</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>MKTDE</t>
+          <t>MGDMTO_s_CR0.6</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>AEMTO</t>
+          <t>MGDMTO_s_CR0.7</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>RLMFEA</t>
+          <t>MGDMTO_s_CR0.8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>EMTO_AI</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>BLKT_DE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>MMLMTO</t>
+          <t>MGDMTO_s_CR0.9</t>
         </is>
       </c>
     </row>
@@ -507,52 +497,42 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>6.52E+02(+)</t>
+          <t>6.16E+02(+)</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>6.04E+02(+)</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>6.01E+02(+)</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
           <t>6.34E+02(+)</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>6.04E+02(+)</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="inlineStr">
-        <is>
-          <t>6.13E+02(+)</t>
-        </is>
-      </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
+          <t>6.00E+02(≈)</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>6.00E+02(+)</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>6.01E+02(+)</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
           <t>6.05E+02(+)</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>6.02E+02(+)</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>6.25E+02(+)</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>6.00E+02(+)</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>6.07E+02(+)</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>6.01E+02(+)</t>
         </is>
       </c>
     </row>
@@ -564,52 +544,42 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>6.53E+02(+)</t>
+          <t>6.15E+02(+)</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>6.35E+02(+)</t>
+          <t>6.05E+02(+)</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
+          <t>6.01E+02(+)</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>6.34E+02(+)</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>6.00E+02(≈)</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>6.00E+02(≈)</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>6.01E+02(+)</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
           <t>6.04E+02(+)</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="inlineStr">
-        <is>
-          <t>6.12E+02(+)</t>
-        </is>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>6.05E+02(+)</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>6.02E+02(+)</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>6.26E+02(+)</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr">
-        <is>
-          <t>6.01E+02(≈)</t>
-        </is>
-      </c>
-      <c r="J3" s="2" t="inlineStr">
-        <is>
-          <t>6.08E+02(+)</t>
-        </is>
-      </c>
-      <c r="K3" s="2" t="inlineStr">
-        <is>
-          <t>6.01E+02(+)</t>
         </is>
       </c>
     </row>
@@ -621,14 +591,14 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
+          <t>7.01E+02(+)</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
           <t>7.00E+02(+)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7.01E+02(+)</t>
-        </is>
-      </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
           <t>7.00E+02(+)</t>
@@ -636,14 +606,14 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>7.11E+02(+)</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>7.00E+02(+)</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7.00E+02(≈)</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
           <t>7.00E+02(+)</t>
@@ -655,16 +625,6 @@
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>7.00E+02(+)</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>7.00E+02(+)</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>7.00E+02(+)</t>
         </is>
@@ -678,14 +638,14 @@
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
+          <t>7.01E+02(+)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
           <t>7.00E+02(+)</t>
         </is>
       </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7.01E+02(+)</t>
-        </is>
-      </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
           <t>7.00E+02(+)</t>
@@ -693,14 +653,14 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
+          <t>7.12E+02(+)</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>7.00E+02(+)</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>7.00E+02(≈)</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
           <t>7.00E+02(+)</t>
@@ -712,16 +672,6 @@
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>7.00E+02(+)</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>7.00E+02(+)</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
         <is>
           <t>7.00E+02(+)</t>
         </is>
@@ -735,52 +685,42 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>2.35E+06(-)</t>
+          <t>1.96E+06(-)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1.03E+06(-)</t>
+          <t>4.15E+05(-)</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1.67E+06(-)</t>
+          <t>1.71E+06(-)</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1.14E+06(-)</t>
+          <t>8.82E+06(+)</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3.45E+06(-)</t>
+          <t>6.90E+06(+)</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8.08E+06(+)</t>
+          <t>8.71E+06(+)</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>7.99E+05(-)</t>
+          <t>6.90E+06(+)</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3.01E+07(+)</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>1.64E+06(-)</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>2.27E+05(-)</t>
+          <t>3.56E+05(-)</t>
         </is>
       </c>
     </row>
@@ -792,52 +732,42 @@
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2.46E+06(-)</t>
+          <t>1.96E+06(-)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1.20E+06(-)</t>
+          <t>4.97E+05(-)</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1.44E+06(-)</t>
+          <t>1.23E+06(-)</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1.30E+06(-)</t>
+          <t>8.01E+06(+)</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4.01E+06(≈)</t>
+          <t>6.59E+06(+)</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8.24E+06(+)</t>
+          <t>8.76E+06(+)</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7.41E+05(-)</t>
+          <t>7.24E+06(+)</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2.98E+07(+)</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>2.01E+06(-)</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>3.18E+05(-)</t>
+          <t>3.51E+05(-)</t>
         </is>
       </c>
     </row>
@@ -849,50 +779,40 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
+          <t>1.30E+03(-)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1.30E+03(-)</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1.30E+03(-)</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1.30E+03(+)</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1.30E+03(≈)</t>
         </is>
       </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(+)</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>1.30E+03(≈)</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(-)</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(+)</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(+)</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1.30E+03(-)</t>
+          <t>1.30E+03(≈)</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(≈)</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(+)</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>1.30E+03(-)</t>
         </is>
@@ -916,42 +836,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>1.30E+03(-)</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>1.30E+03(≈)</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(-)</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>1.30E+03(+)</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>1.30E+03(≈)</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(+)</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1.30E+03(-)</t>
+          <t>1.30E+03(≈)</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>1.30E+03(≈)</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(≈)</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1.30E+03(-)</t>
         </is>
       </c>
     </row>
@@ -963,52 +873,42 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>1.56E+03(+)</t>
+          <t>1.52E+03(-)</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1.58E+03(+)</t>
+          <t>1.51E+03(-)</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>1.53E+03(-)</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5.31E+03(+)</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>1.53E+03(+)</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.53E+03(+)</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>1.53E+03(≈)</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1.51E+03(-)</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1.53E+03(≈)</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1.53E+03(+)</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1.52E+03(-)</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1.53E+03(≈)</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1.53E+03(+)</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1.51E+03(-)</t>
+          <t>1.53E+03(-)</t>
         </is>
       </c>
     </row>
@@ -1020,12 +920,12 @@
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>1.55E+03(+)</t>
+          <t>1.52E+03(-)</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1.58E+03(+)</t>
+          <t>1.52E+03(-)</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1035,12 +935,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1.51E+03(-)</t>
+          <t>2.54E+03(+)</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1.53E+03(≈)</t>
+          <t>1.53E+03(+)</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1050,22 +950,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1.51E+03(-)</t>
+          <t>1.53E+03(+)</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1.53E+03(+)</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1.53E+03(≈)</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1.51E+03(-)</t>
+          <t>1.53E+03(-)</t>
         </is>
       </c>
     </row>
@@ -1077,52 +967,42 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>1.43E+06(-)</t>
+          <t>2.31E+06(≈)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1.55E+06(-)</t>
+          <t>6.55E+05(-)</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7.79E+05(-)</t>
+          <t>1.41E+06(-)</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8.40E+05(-)</t>
+          <t>7.79E+06(+)</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1.30E+07(+)</t>
+          <t>8.58E+06(+)</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>3.94E+06(+)</t>
+          <t>8.48E+06(+)</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6.65E+05(-)</t>
+          <t>5.44E+06(+)</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1.29E+07(+)</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>7.85E+05(-)</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2.00E+05(-)</t>
+          <t>2.83E+05(-)</t>
         </is>
       </c>
     </row>
@@ -1134,52 +1014,42 @@
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>1.06E+06(-)</t>
+          <t>1.65E+06(-)</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1.19E+06(-)</t>
+          <t>5.64E+05(-)</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6.52E+05(-)</t>
+          <t>8.74E+05(-)</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5.32E+05(-)</t>
+          <t>6.30E+06(+)</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1.32E+07(+)</t>
+          <t>6.50E+06(+)</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3.82E+06(≈)</t>
+          <t>8.22E+06(+)</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5.38E+05(-)</t>
+          <t>5.11E+06(+)</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1.34E+07(+)</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>7.79E+05(-)</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>1.36E+05(-)</t>
+          <t>2.00E+05(-)</t>
         </is>
       </c>
     </row>
@@ -1191,52 +1061,42 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>3.30E+03(≈)</t>
+          <t>2.79E+03(-)</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3.27E+03(≈)</t>
+          <t>2.51E+03(-)</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3.68E+03(+)</t>
+          <t>2.60E+03(-)</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2.68E+03(-)</t>
+          <t>3.23E+03(-)</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3.89E+03(+)</t>
+          <t>3.76E+03(+)</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3.79E+03(+)</t>
+          <t>3.86E+03(+)</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3.16E+03(-)</t>
+          <t>3.80E+03(+)</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3.95E+03(+)</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2.91E+03(-)</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2.84E+03(-)</t>
+          <t>3.51E+03(≈)</t>
         </is>
       </c>
     </row>
@@ -1248,52 +1108,42 @@
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>3.44E+03(≈)</t>
+          <t>2.89E+03(-)</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3.35E+03(≈)</t>
+          <t>2.56E+03(-)</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3.71E+03(+)</t>
+          <t>2.67E+03(-)</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2.96E+03(-)</t>
+          <t>3.19E+03(-)</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3.89E+03(+)</t>
+          <t>3.63E+03(+)</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>3.83E+03(+)</t>
+          <t>3.84E+03(+)</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3.14E+03(-)</t>
+          <t>3.81E+03(+)</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3.78E+03(+)</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>2.88E+03(-)</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>2.75E+03(-)</t>
+          <t>3.42E+03(≈)</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1155,12 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>5.20E+02(-)</t>
+          <t>5.21E+02(≈)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5.20E+02(-)</t>
+          <t>5.21E+02(≈)</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1320,37 +1170,27 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
+          <t>5.21E+02(+)</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>5.21E+02(≈)</t>
         </is>
       </c>
-      <c r="F16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>5.21E+02(≈)</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
+      <c r="H16" s="2" t="inlineStr">
         <is>
           <t>5.21E+02(≈)</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>5.20E+02(-)</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>5.21E+02(≈)</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>5.21E+02(≈)</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>5.20E+02(-)</t>
         </is>
       </c>
     </row>
@@ -1362,12 +1202,12 @@
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>5.20E+02(-)</t>
+          <t>5.21E+02(≈)</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5.20E+02(-)</t>
+          <t>5.21E+02(≈)</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1377,37 +1217,27 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
+          <t>5.21E+02(+)</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>5.21E+02(≈)</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="G17" s="2" t="inlineStr">
         <is>
           <t>5.21E+02(≈)</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
         <is>
           <t>5.21E+02(≈)</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>5.20E+02(-)</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
           <t>5.21E+02(≈)</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>5.21E+02(≈)</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>5.20E+02(-)</t>
         </is>
       </c>
     </row>
@@ -1419,52 +1249,42 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>8.61E+03(-)</t>
+          <t>1.16E+04(-)</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>8.31E+03(-)</t>
+          <t>1.41E+04(≈)</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1.48E+04(+)</t>
+          <t>1.45E+04(≈)</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>7.15E+03(-)</t>
+          <t>1.25E+04(-)</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>1.47E+04(≈)</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>1.46E+04(≈)</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>1.47E+04(≈)</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7.74E+03(-)</t>
+          <t>1.46E+04(≈)</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
           <t>1.46E+04(≈)</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>7.65E+03(-)</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>7.48E+03(-)</t>
         </is>
       </c>
     </row>
@@ -1486,42 +1306,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>1.62E+03(≈)</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.62E+03(≈)</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>1.62E+03(≈)</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.62E+03(≈)</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>1.62E+03(+)</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>1.62E+03(-)</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1.62E+03(≈)</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>1.62E+03(+)</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>1.62E+03(-)</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>1.62E+03(≈)</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>1.62E+03(-)</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>1.62E+03(-)</t>
         </is>
       </c>
     </row>
@@ -1533,52 +1343,42 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>3.63E+04(≈)</t>
+          <t>1.61E+04(-)</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>3.49E+04(≈)</t>
+          <t>1.78E+04(-)</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1.38E+04(-)</t>
+          <t>2.55E+04(-)</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9.58E+03(-)</t>
+          <t>7.89E+04(+)</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>4.03E+04(+)</t>
+          <t>3.69E+04(≈)</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>2.86E+04(≈)</t>
+          <t>3.65E+04(+)</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2.27E+04(-)</t>
+          <t>2.62E+04(≈)</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>3.67E+04(≈)</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>2.30E+04(-)</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>5.26E+03(-)</t>
+          <t>7.54E+03(-)</t>
         </is>
       </c>
     </row>
@@ -1590,52 +1390,42 @@
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>2.39E+06(-)</t>
+          <t>2.84E+06(-)</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1.61E+06(-)</t>
+          <t>7.33E+05(-)</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9.84E+05(-)</t>
+          <t>1.35E+06(-)</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1.13E+06(-)</t>
+          <t>7.75E+06(≈)</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1.46E+07(+)</t>
+          <t>8.77E+06(+)</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4.50E+06(≈)</t>
+          <t>9.73E+06(+)</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>1.14E+06(-)</t>
+          <t>5.82E+06(≈)</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1.53E+07(+)</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>8.60E+05(-)</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>2.57E+05(-)</t>
+          <t>3.84E+05(-)</t>
         </is>
       </c>
     </row>
@@ -1647,52 +1437,42 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>6 / 4 / 10</t>
+          <t>4 / 3 / 13</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>7 / 3 / 10</t>
+          <t>4 / 3 / 13</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8 / 6 / 6</t>
+          <t>4 / 5 / 11</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4 / 2 / 14</t>
+          <t>14 / 3 / 3</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>9 / 10 / 1</t>
+          <t>12 / 8 / 0</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>14 / 6 / 0</t>
+          <t>13 / 7 / 0</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4 / 0 / 16</t>
+          <t>12 / 8 / 0</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>11 / 9 / 0</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>6 / 4 / 10</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>4 / 0 / 16</t>
+          <t>4 / 7 / 9</t>
         </is>
       </c>
     </row>
